--- a/data/trans_camb/P25_2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P25_2-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,7 +680,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,37 +690,67 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,14</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>-0,02</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,7</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1,12</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,17</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>1,37</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>2,18</t>
         </is>
       </c>
     </row>
@@ -685,7 +763,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,41</t>
+          <t>0,0; 4,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,37 +773,67 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 4,27</t>
+          <t>-0,78; 7,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 2,21</t>
+          <t>0,91; 9,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 0,0</t>
+          <t>-2,09; 3,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 3,17</t>
+          <t>-2,65; 2,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 1,12</t>
+          <t>-2,7; 1,55</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 0,0</t>
+          <t>-2,24; 1,43</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 4,59</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-0,4; 2,91</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-1,26; 1,37</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-1,23; 1,8</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-0,52; 5,06</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0,59; 6,03</t>
         </is>
       </c>
     </row>
@@ -748,37 +856,67 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>34,26%</t>
+          <t>292,11%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-30,4%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>69,31%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>102,54%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-27,75%</t>
+          <t>-44,54%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-3,14%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>176,25%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>4,54%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>27,21%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>170,13%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -821,7 +959,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-86,21; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -830,6 +968,36 @@
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-81,55; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,28</t>
+          <t>-1,97</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,61</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>1,64</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2,45</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-0,41</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-1,37</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,27</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
           <t>0,2</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1,15</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 1,47</t>
+          <t>-4,68; 1,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 0,52</t>
+          <t>-5,84; 0,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 6,7</t>
+          <t>-1,98; 6,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 3,37</t>
+          <t>-6,27; 4,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 1,56</t>
+          <t>-5,12; 5,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 1,9</t>
+          <t>-2,47; 3,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 1,95</t>
+          <t>-3,44; 2,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 0,29</t>
+          <t>-2,61; 3,56</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 3,22</t>
+          <t>-2,0; 7,52</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-0,61; 8,25</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-2,85; 1,86</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-3,67; 0,6</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-1,48; 3,95</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-3,18; 3,89</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-2,19; 4,77</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-40,71%</t>
+          <t>-38,58%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-64,25%</t>
+          <t>-58,46%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>33,46%</t>
+          <t>68,8%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>21,48%</t>
+          <t>-18,46%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-35,59%</t>
+          <t>-1,89%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-33,63%</t>
+          <t>24,87%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-16,72%</t>
+          <t>-29,44%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-53,26%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>67,4%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>150,09%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-13,96%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-47,28%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>43,72%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>4,68%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>35,57%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-88,63; 152,23</t>
+          <t>-87,86; 175,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 89,71</t>
+          <t>-100,0; 124,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-60,82; 454,67</t>
+          <t>-48,49; 425,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-68,36; 317,35</t>
+          <t>-73,84; 176,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-89,11; 219,15</t>
+          <t>-72,46; 274,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 219,31</t>
+          <t>-70,61; 293,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-66,34; 138,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-82,26; 35,19</t>
+          <t>-75,86; 578,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-59,69; 192,59</t>
+          <t>-70,76; 803,79</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-59,16; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-65,05; 125,57</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-85,54; 47,88</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-41,05; 236,59</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-55,37; 156,3</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-50,69; 241,09</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,94</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>6,58</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>7,3</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>5,43</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>-2,69</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1,49</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1,03</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>3,92</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>2,15</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>4,52</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 5,75</t>
+          <t>-2,88; 5,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 5,59</t>
+          <t>-3,13; 5,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 7,17</t>
+          <t>-2,15; 7,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,3; 0,89</t>
+          <t>0,34; 13,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 2,47</t>
+          <t>0,35; 14,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 3,86</t>
+          <t>-3,69; 1,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 2,39</t>
+          <t>-2,4; 3,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 3,29</t>
+          <t>1,5; 10,88</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 4,18</t>
+          <t>-8,59; 2,38</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-2,22; 5,99</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-2,57; 2,69</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-1,86; 3,51</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0,37; 7,72</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-2,43; 7,01</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0,04; 9,4</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>27,14%</t>
+          <t>19,55%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>27,4%</t>
+          <t>18,96%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>32,68%</t>
+          <t>37,76%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-42,88%</t>
+          <t>76,66%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-12,19%</t>
+          <t>92,65%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-6,73%</t>
+          <t>-20,11%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-6,53%</t>
+          <t>25,44%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>8,27%</t>
+          <t>151,36%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>15,87%</t>
+          <t>-29,86%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>30,84%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>4,28%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>21,11%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>80,1%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>24,47%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>70,2%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-31,66; 148,86</t>
+          <t>-38,71; 129,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-33,01; 140,34</t>
+          <t>-39,88; 122,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-43,51; 160,22</t>
+          <t>-28,84; 171,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-86,5; 39,85</t>
+          <t>-3,43; 208,89</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-75,28; 84,72</t>
+          <t>-6,98; 262,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-68,98; 145,48</t>
+          <t>-71,15; 103,71</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-51,36; 65,68</t>
+          <t>-49,33; 194,86</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-39,71; 85,16</t>
+          <t>19,72; 474,97</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-41,05; 103,19</t>
+          <t>-66,68; 48,96</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-35,98; 204,36</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-38,51; 74,28</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-29,46; 95,81</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>2,08; 201,15</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-23,5; 97,19</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-0,84; 203,36</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,14</t>
+          <t>4,82</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,84</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>0,91</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>-2,74</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1,19</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2,98</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1,26</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-2,01</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,88</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>3,9</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>1,22</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
           <t>1,04</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>1,82</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>-2,03</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>0,87</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>4,1</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,52; 4,72</t>
+          <t>-8,2; 4,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 6,77</t>
+          <t>-5,93; 6,8</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 14,6</t>
+          <t>-1,89; 11,94</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 2,89</t>
+          <t>-5,52; 10,93</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 7,44</t>
+          <t>-7,62; 9,62</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 7,98</t>
+          <t>-8,45; 2,75</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 1,96</t>
+          <t>-4,68; 6,74</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 4,92</t>
+          <t>-3,2; 9,34</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 9,17</t>
+          <t>-6,94; 6,96</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-5,8; 8,79</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-6,22; 2,29</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-3,1; 5,45</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-0,86; 8,64</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-3,93; 6,34</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-4,25; 7,23</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-7,0%</t>
+          <t>-7,27%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>35,89%</t>
+          <t>28,17%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-16,62%</t>
+          <t>10,11%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>-16,03%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-11,89%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>17,42%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>23,97%</t>
+          <t>0,45%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>6,67%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-11,73%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>5,15%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>22,83%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>5,79%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>4,9%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-36,72; 34,57</t>
+          <t>-39,21; 35,8</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-28,85; 47,66</t>
+          <t>-28,48; 50,3</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 109,57</t>
+          <t>-8,45; 86,43</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-41,92; 21,48</t>
+          <t>-22,08; 58,33</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-22,93; 54,24</t>
+          <t>-28,31; 51,9</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-26,75; 55,21</t>
+          <t>-43,18; 19,07</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-33,1; 13,04</t>
+          <t>-23,12; 47,59</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-17,22; 33,44</t>
+          <t>-15,26; 65,71</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-9,22; 60,58</t>
+          <t>-30,55; 41,59</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-26,17; 56,41</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-31,06; 15,93</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-16,2; 38,21</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-4,53; 59,09</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-16,82; 33,96</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-17,74; 40,07</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>7,77</t>
+          <t>6,93</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>4,23</t>
+          <t>6,18</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-2,87</t>
+          <t>-3,49</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>-2,72</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-1,77</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>4,83</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>-2,18</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-2,57</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-1,96</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>4,51</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>2,75</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>-2,82</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>-1,48</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 8,24</t>
+          <t>-9,96; 7,38</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 16,69</t>
+          <t>-1,72; 16,22</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 15,38</t>
+          <t>-2,81; 16,68</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-12,11; 5,47</t>
+          <t>-12,34; 6,32</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 9,53</t>
+          <t>-11,7; 8,57</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 9,0</t>
+          <t>-11,16; 4,96</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 4,39</t>
+          <t>-7,59; 10,58</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 11,23</t>
+          <t>-10,03; 8,94</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 8,95</t>
+          <t>-10,92; 7,06</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-11,03; 6,36</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-7,95; 3,54</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-1,0; 11,05</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-3,93; 9,34</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-10,24; 3,56</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-7,96; 5,78</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-2,1%</t>
+          <t>-3,62%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>23,77%</t>
+          <t>20,52%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>12,95%</t>
+          <t>18,31%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-9,09%</t>
+          <t>-8,73%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>-1,29%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>-8,51%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-5,51%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>-1,61%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>-6,92%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-8,06%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-5,96%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>13,72%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>8,37%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>-7,91%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>-4,31%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-23,5; 29,71</t>
+          <t>-26,07; 25,18</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 58,67</t>
+          <t>-4,31; 59,33</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-13,04; 57,49</t>
+          <t>-7,97; 57,76</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-34,53; 20,58</t>
+          <t>-28,48; 17,98</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-23,62; 35,21</t>
+          <t>-26,99; 26,61</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-25,85; 34,44</t>
+          <t>-31,32; 17,78</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-21,45; 15,32</t>
+          <t>-20,37; 39,47</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 38,42</t>
+          <t>-28,04; 32,38</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-13,42; 30,82</t>
+          <t>-30,92; 26,52</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-31,17; 22,96</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-22,14; 12,21</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-2,81; 38,58</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-10,35; 31,5</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-25,92; 11,01</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-21,47; 19,43</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>7,15</t>
+          <t>6,47</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>6,56</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-9,1</t>
+          <t>-4,57</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-3,4</t>
+          <t>-12,55</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-6,63</t>
+          <t>-9,5</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-4,26</t>
+          <t>-5,29</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>-9,67</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>-0,53</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>-2,46</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-4,8</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>-0,23</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>-6,55</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>-2,1</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>-6,69</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-10,31; 14,65</t>
+          <t>-8,61; 13,01</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 19,72</t>
+          <t>-4,65; 17,34</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 20,35</t>
+          <t>-14,43; 10,43</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-19,36; 0,71</t>
+          <t>-15,66; 8,33</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-13,86; 7,15</t>
+          <t>-25,51; -0,7</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-19,33; 4,61</t>
+          <t>-18,82; 0,01</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-11,63; 4,1</t>
+          <t>-15,26; 3,94</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 8,71</t>
+          <t>-21,29; 1,09</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-10,14; 8,0</t>
+          <t>-13,48; 10,99</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-15,89; 9,59</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-12,45; 1,76</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-7,91; 7,11</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-15,96; 1,11</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-10,53; 7,26</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-15,41; 2,97</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>14,78%</t>
+          <t>13,13%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>13,56%</t>
+          <t>-4,73%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-14,35%</t>
+          <t>-9,74%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-5,36%</t>
+          <t>-22,87%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-10,47%</t>
+          <t>-14,73%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-7,48%</t>
+          <t>-8,2%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>-15,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-1,61%</t>
+          <t>-0,97%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>-4,33%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-8,29%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>-0,4%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>-11,31%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>-4,08%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>-11,96%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-18,53; 35,47</t>
+          <t>-16,06; 31,34</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 48,55</t>
+          <t>-8,42; 39,78</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 48,23</t>
+          <t>-26,86; 24,43</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-28,07; 1,42</t>
+          <t>-30,08; 19,56</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-20,52; 12,17</t>
+          <t>-41,44; -1,14</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-28,48; 8,04</t>
+          <t>-27,28; 0,13</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-19,36; 7,57</t>
+          <t>-22,43; 6,38</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-10,45; 16,95</t>
+          <t>-31,37; 1,67</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-16,75; 14,88</t>
+          <t>-21,82; 23,0</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-24,56; 18,63</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-20,24; 3,25</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-13,16; 13,53</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-25,7; 1,93</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-19,22; 15,51</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-25,12; 5,92</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-3,47</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-1,69</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>-0,31</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>-0,08</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>-1,67</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>0,37</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>1,22</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>-0,08</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 2,8</t>
+          <t>-3,04; 2,87</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 4,98</t>
+          <t>-1,47; 4,67</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 6,81</t>
+          <t>-0,75; 6,16</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-6,76; -0,33</t>
+          <t>-3,75; 3,86</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 2,81</t>
+          <t>-3,89; 3,8</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 2,96</t>
+          <t>-6,29; -0,09</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 0,78</t>
+          <t>-4,67; 2,5</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 3,29</t>
+          <t>-3,67; 3,51</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 3,85</t>
+          <t>-3,92; 3,61</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-4,23; 3,5</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-3,64; 0,57</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-1,83; 2,72</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-1,07; 3,83</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-2,75; 2,44</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-3,06; 2,27</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>-0,58%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>12,01%</t>
+          <t>9,98%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>20,45%</t>
+          <t>15,69%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-15,77%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-4,89%</t>
+          <t>-0,4%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-2,97%</t>
+          <t>-14,56%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-8,57%</t>
+          <t>-4,46%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>-1,23%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>-1,44%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-0,37%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-8,45%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>1,85%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>6,15%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>-0,0%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>-0,38%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-15,86; 17,67</t>
+          <t>-15,82; 17,48</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 31,12</t>
+          <t>-7,41; 28,71</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 43,61</t>
+          <t>-4,06; 37,88</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-28,22; -1,59</t>
+          <t>-16,28; 21,17</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-19,32; 14,11</t>
+          <t>-17,15; 20,36</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-19,59; 14,22</t>
+          <t>-27,04; -0,42</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-17,4; 4,18</t>
+          <t>-19,63; 12,59</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 17,53</t>
+          <t>-15,43; 17,31</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 21,42</t>
+          <t>-16,76; 17,63</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-18,0; 18,19</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-17,54; 2,9</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-8,74; 14,45</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-5,13; 20,87</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-12,47; 12,38</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-13,29; 11,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
